--- a/public/sample/Channel_Import_Format.xlsx
+++ b/public/sample/Channel_Import_Format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>channel_name</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,100 +434,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K13"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.36328125" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="33.90625" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="34.36328125" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="33.90625" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" customWidth="1"/>
+    <col min="8" max="8" width="36.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
